--- a/JourneyofLords/Assets/Scripts/GameData/EquipData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/EquipData.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF30B11A-2213-4AE6-BB38-A49E65A33B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2EFD6-42FA-4452-9F41-FEFE651AEFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -180,6 +183,233 @@
   </si>
   <si>
     <t>불멸의 신발</t>
+  </si>
+  <si>
+    <t>spriteName</t>
+  </si>
+  <si>
+    <t>weapon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날이 무딘 낡은 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 칼날을 갈아 만든 검, 꽤나 예리하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼날에 얼굴이 비출 정도로 빛나는 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화려한 장식이 덧대어진 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군주가 사용하던 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제의 각인이 박힌 검, 매우 희귀하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 세기에 걸쳐 내려오는 검, 불멸의 상징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽과 약간의 철을 덧데어 만든 낡은 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇은 철 갑옷, 상체만 감싸고 있어 방어엔 취약하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광택이 나는 철 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두꺼운 철 갑옷, 장식이 수놓여져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제의 보석과 장식이 박힌 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 세기에 걸쳐 내려오는 갑옷, 불멸의 상징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helmet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helmet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helmet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helmet4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helmet5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helmet6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helmet7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shooes1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shooes2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shooes3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shooes4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shooes5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shooes6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shooes7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹슬은 낡은 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기저기 찍힌 조잡한 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반짝이는 광나는 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화려한 각인이 박힌 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군주가 사용하던 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제의 각인이 박힌 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 세기에 걸쳐 내려오는 투구, 불멸의 상징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 헤진 가죽 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딘가 조잡해보이는 가죽 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 닦인 광나는 가죽 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화려한 장식의 철제 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군주가 사용하던 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제의 장식이 박힌 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군주가 사용하던 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 세기에 걸쳐 내려오는 신발, 불멸의 상징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,16 +734,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA2C20A-2ECF-466B-A597-0498E33A512D}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,10 +775,13 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
@@ -570,235 +806,278 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3">
-        <f>B2+1</f>
+        <f t="shared" ref="B3:B29" si="0">B2+1</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="H3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4">
-        <f>B3+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5">
-        <f>B4+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <f>G2*0.3</f>
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="H5">
-        <f>H3*0.3</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>I4*0.3</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
-        <f>D2+1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3800</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>210</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <f t="shared" ref="B7:B29" si="0">B6+1</f>
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D29" si="1">D3+1</f>
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>210</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f>G6*0.3</f>
-        <v>63</v>
-      </c>
-      <c r="H9">
-        <f>H7*0.3</f>
-        <v>63</v>
-      </c>
-      <c r="I9">
-        <f>I8*0.3</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>350</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -807,7 +1086,6 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E11" t="s">
@@ -825,95 +1103,113 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f t="shared" si="0"/>
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f>G10*0.3</f>
-        <v>105</v>
-      </c>
-      <c r="H13">
-        <f>H11*0.3</f>
-        <v>105</v>
-      </c>
-      <c r="I13">
-        <f>I12*0.3</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -922,11 +1218,10 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -935,13 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>600</v>
+        <v>3800</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -950,113 +1251,130 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>210</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>350</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>600</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <f>G14*0.3</f>
-        <v>180</v>
-      </c>
-      <c r="H17">
-        <f>H15*0.3</f>
-        <v>180</v>
-      </c>
-      <c r="I17">
-        <f>I16*0.3</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1000</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1065,7 +1383,6 @@
         <v>12</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E20" t="s">
@@ -1083,123 +1400,146 @@
       <c r="I20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>3800</v>
+      </c>
+      <c r="J22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <f>G18*0.3</f>
-        <v>300</v>
-      </c>
-      <c r="H21">
-        <f>H19*0.3</f>
-        <v>300</v>
-      </c>
-      <c r="I21">
-        <f>I20*0.3</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2000</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <f t="shared" si="0"/>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <v>36</v>
+      </c>
+      <c r="I23">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>2000</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I24">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1208,113 +1548,130 @@
         <v>13</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>105</v>
+      </c>
+      <c r="H25">
+        <v>105</v>
+      </c>
+      <c r="I25">
+        <v>105</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>180</v>
+      </c>
+      <c r="H26">
+        <v>180</v>
+      </c>
+      <c r="I26">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>300</v>
+      </c>
+      <c r="H27">
+        <v>300</v>
+      </c>
+      <c r="I27">
+        <v>300</v>
+      </c>
+      <c r="J27" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>37</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <f>G22*0.3</f>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>600</v>
       </c>
-      <c r="H25">
-        <f>H23*0.3</f>
+      <c r="H28">
         <v>600</v>
       </c>
-      <c r="I25">
-        <f>I24*0.3</f>
+      <c r="I28">
         <v>600</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>3800</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>3800</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1323,7 +1680,6 @@
         <v>13</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E29" t="s">
@@ -1333,16 +1689,19 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <f>G26*0.3</f>
         <v>1140</v>
       </c>
       <c r="H29">
-        <f>H27*0.3</f>
         <v>1140</v>
       </c>
       <c r="I29">
-        <f>I28*0.3</f>
         <v>1140</v>
+      </c>
+      <c r="J29" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
